--- a/src/main/resources/templates/DEPT_PROFILE.xlsx
+++ b/src/main/resources/templates/DEPT_PROFILE.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SpringBootWorkSpace\customized-validation-demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E172B4D-EDCE-40F1-921E-A9FB3F8B7334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B8B626-23A4-4DDC-AE31-30B88A5B0BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="2400" windowWidth="11145" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIS" sheetId="1" r:id="rId1"/>
     <sheet name="HR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -425,9 +425,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -441,7 +441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -466,7 +466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -485,15 +485,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2CEA4-D2C7-428F-B9D6-CDA5A747975A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>40</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -542,6 +542,12 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
